--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home_pink/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home_pink/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6493E01-74D0-434E-B91E-8BF65DEEFE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CAD589-4B0F-C046-A5E1-CE48D77416D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{3FA0CB5C-3314-3040-9243-932FDB644B5B}"/>
+    <workbookView xWindow="4020" yWindow="500" windowWidth="40780" windowHeight="23000" xr2:uid="{3FA0CB5C-3314-3040-9243-932FDB644B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="45" uniqueCount="43">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="9" uniqueCount="7">
   <si>
     <t>Pro-choice</t>
   </si>
@@ -57,114 +57,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>2022 May 2-22</t>
-  </si>
-  <si>
-    <t>2021 May 3-18</t>
-  </si>
-  <si>
-    <t>2020 May 1-13</t>
-  </si>
-  <si>
-    <t>2019 May 1-12</t>
-  </si>
-  <si>
-    <t>2018 May 1-10</t>
-  </si>
-  <si>
-    <t>2017 May 3-7</t>
-  </si>
-  <si>
-    <t>2016 May 4-8</t>
-  </si>
-  <si>
-    <t>2015 May 6-10</t>
-  </si>
-  <si>
-    <t>2014 May 8-11</t>
-  </si>
-  <si>
-    <t>2013 May 2-7</t>
-  </si>
-  <si>
-    <t>2012 Dec 27-30</t>
-  </si>
-  <si>
-    <t>2012 May 3-6</t>
-  </si>
-  <si>
-    <t>2011 Jul 15-17</t>
-  </si>
-  <si>
-    <t>2011 Jun 9-12</t>
-  </si>
-  <si>
-    <t>2011 May 5-8</t>
-  </si>
-  <si>
-    <t>2010 May 3-6</t>
-  </si>
-  <si>
-    <t>2009 Jul 17-19</t>
-  </si>
-  <si>
-    <t>2009 May 7-10</t>
-  </si>
-  <si>
-    <t>2008 May 8-11</t>
-  </si>
-  <si>
-    <t>2007 May 10-13</t>
-  </si>
-  <si>
-    <t>2006 May 8-11</t>
-  </si>
-  <si>
-    <t>2005 May 2-5</t>
-  </si>
-  <si>
-    <t>2004 May 2-4</t>
-  </si>
-  <si>
-    <t>2003 Oct 24-26</t>
-  </si>
-  <si>
-    <t>2003 May 5-7</t>
-  </si>
-  <si>
-    <t>2002 May 6-9</t>
-  </si>
-  <si>
-    <t>2001 Aug 10-12</t>
-  </si>
-  <si>
-    <t>2001 May 10-14</t>
-  </si>
-  <si>
-    <t>2001 Mar 26-28</t>
-  </si>
-  <si>
-    <t>2000 Mar 30-Apr 2</t>
-  </si>
-  <si>
-    <t>1999 Apr 30-May 2</t>
-  </si>
-  <si>
-    <t>1998 Jan 16-18</t>
-  </si>
-  <si>
-    <t>1997 Nov 6-9</t>
-  </si>
-  <si>
-    <t>1997 Aug 12-13</t>
-  </si>
-  <si>
-    <t>1996 Jul 25-28</t>
-  </si>
-  <si>
-    <t>1995 Sep 22-24</t>
   </si>
   <si>
     <t xml:space="preserve">Time Frame </t>
@@ -537,7 +429,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,7 +445,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -579,8 +471,8 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="2">
+        <v>2022</v>
       </c>
       <c r="B3" s="2">
         <v>55</v>
@@ -599,8 +491,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="2">
+        <v>2021</v>
       </c>
       <c r="B4" s="2">
         <v>49</v>
@@ -619,8 +511,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
+      <c r="A5" s="2">
+        <v>2020</v>
       </c>
       <c r="B5" s="2">
         <v>48</v>
@@ -639,8 +531,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
+      <c r="A6" s="2">
+        <v>2019</v>
       </c>
       <c r="B6" s="2">
         <v>46</v>
@@ -659,8 +551,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+      <c r="A7" s="2">
+        <v>2018</v>
       </c>
       <c r="B7" s="2">
         <v>48</v>
@@ -679,8 +571,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+      <c r="A8" s="2">
+        <v>2017</v>
       </c>
       <c r="B8" s="2">
         <v>49</v>
@@ -699,8 +591,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
+      <c r="A9" s="2">
+        <v>2016</v>
       </c>
       <c r="B9" s="2">
         <v>47</v>
@@ -719,8 +611,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
+      <c r="A10" s="2">
+        <v>2015</v>
       </c>
       <c r="B10" s="2">
         <v>50</v>
@@ -739,8 +631,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
+      <c r="A11" s="2">
+        <v>2014</v>
       </c>
       <c r="B11" s="2">
         <v>47</v>
@@ -759,8 +651,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
+      <c r="A12" s="2">
+        <v>2013</v>
       </c>
       <c r="B12" s="2">
         <v>45</v>
@@ -779,8 +671,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
+      <c r="A13" s="2">
+        <v>2012</v>
       </c>
       <c r="B13" s="2">
         <v>48</v>
@@ -799,8 +691,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
+      <c r="A14" s="2">
+        <v>2012</v>
       </c>
       <c r="B14" s="2">
         <v>41</v>
@@ -819,8 +711,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
+      <c r="A15" s="2">
+        <v>2011</v>
       </c>
       <c r="B15" s="2">
         <v>47</v>
@@ -839,8 +731,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
+      <c r="A16" s="2">
+        <v>2011</v>
       </c>
       <c r="B16" s="2">
         <v>46</v>
@@ -859,8 +751,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
+      <c r="A17" s="2">
+        <v>2011</v>
       </c>
       <c r="B17" s="2">
         <v>49</v>
@@ -879,8 +771,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
+      <c r="A18" s="2">
+        <v>2010</v>
       </c>
       <c r="B18" s="2">
         <v>45</v>
@@ -899,8 +791,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
+      <c r="A19" s="2">
+        <v>2009</v>
       </c>
       <c r="B19" s="2">
         <v>46</v>
@@ -919,8 +811,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
+      <c r="A20" s="2">
+        <v>2009</v>
       </c>
       <c r="B20" s="2">
         <v>42</v>
@@ -939,8 +831,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
+      <c r="A21" s="2">
+        <v>2008</v>
       </c>
       <c r="B21" s="2">
         <v>50</v>
@@ -959,8 +851,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
+      <c r="A22" s="2">
+        <v>2007</v>
       </c>
       <c r="B22" s="2">
         <v>49</v>
@@ -979,8 +871,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
+      <c r="A23" s="2">
+        <v>2006</v>
       </c>
       <c r="B23" s="2">
         <v>51</v>
@@ -999,8 +891,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
+      <c r="A24" s="2">
+        <v>2005</v>
       </c>
       <c r="B24" s="2">
         <v>48</v>
@@ -1019,8 +911,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
+      <c r="A25" s="2">
+        <v>2004</v>
       </c>
       <c r="B25" s="2">
         <v>49</v>
@@ -1039,8 +931,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
+      <c r="A26" s="2">
+        <v>2003</v>
       </c>
       <c r="B26" s="2">
         <v>48</v>
@@ -1059,8 +951,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
+      <c r="A27" s="2">
+        <v>2003</v>
       </c>
       <c r="B27" s="2">
         <v>48</v>
@@ -1079,8 +971,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
+      <c r="A28" s="2">
+        <v>2002</v>
       </c>
       <c r="B28" s="2">
         <v>47</v>
@@ -1099,8 +991,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
+      <c r="A29" s="2">
+        <v>2001</v>
       </c>
       <c r="B29" s="2">
         <v>46</v>
@@ -1119,8 +1011,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
+      <c r="A30" s="2">
+        <v>2001</v>
       </c>
       <c r="B30" s="2">
         <v>48</v>
@@ -1139,8 +1031,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
+      <c r="A31" s="2">
+        <v>2001</v>
       </c>
       <c r="B31" s="2">
         <v>47</v>
@@ -1159,8 +1051,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
+      <c r="A32" s="2">
+        <v>2000</v>
       </c>
       <c r="B32" s="2">
         <v>48</v>
@@ -1179,8 +1071,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
+      <c r="A33" s="2">
+        <v>1999</v>
       </c>
       <c r="B33" s="2">
         <v>48</v>
@@ -1199,8 +1091,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
+      <c r="A34" s="2">
+        <v>1998</v>
       </c>
       <c r="B34" s="2">
         <v>48</v>
@@ -1219,8 +1111,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
+      <c r="A35" s="2">
+        <v>1997</v>
       </c>
       <c r="B35" s="2">
         <v>51</v>
@@ -1239,8 +1131,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
+      <c r="A36" s="2">
+        <v>1997</v>
       </c>
       <c r="B36" s="2">
         <v>47</v>
@@ -1259,8 +1151,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>40</v>
+      <c r="A37" s="2">
+        <v>1996</v>
       </c>
       <c r="B37" s="2">
         <v>53</v>
@@ -1279,8 +1171,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
+      <c r="A38" s="2">
+        <v>1995</v>
       </c>
       <c r="B38" s="2">
         <v>56</v>
